--- a/Projects/CCRU_SAND/Data/FT Spirits 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/FT Spirits 2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="60">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -184,28 +184,22 @@
     <t xml:space="preserve">Чинзано Асти - 0.75л</t>
   </si>
   <si>
-    <t xml:space="preserve">Cinzano Bianco - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Чинзано Бьянко - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cinzano Bianco - 1.0L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Чинзано Бьянко - 1.0л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bushmills - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бушмилз - 0.5л </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Old Smuggler - 0.7L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Олд Смагглер - 0.7л</t>
+    <t xml:space="preserve">Cinzano Bianco - 0.5L/Cinzano Bianco - 1.0L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чинзано Бьянко - 0.5л/Чинзано Бьянко - 1.0л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8000020635000, 8000020000013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bushmills - 0.5L/Old Smuggler - 0.7L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бушмилз - 0.5л /Олд Смагглер - 0.7л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5055966801098, 5010327605005</t>
   </si>
 </sst>
 </file>
@@ -247,15 +241,21 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -263,13 +263,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -296,7 +289,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -317,7 +310,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -338,30 +343,36 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AN7"/>
+  <dimension ref="A1:AN5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S6" activeCellId="0" sqref="S6"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.2793522267206"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="33.4210526315789"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.0647773279352"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="51.9514170040486"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="42.6315789473684"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="29.9919028340081"/>
     <col collapsed="false" hidden="false" max="9" min="7" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="28" min="15" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="2" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -483,7 +494,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="39.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="n">
         <v>1</v>
       </c>
@@ -529,8 +540,8 @@
       <c r="AB2" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="AC2" s="2" t="n">
-        <v>0.15</v>
+      <c r="AC2" s="6" t="n">
+        <v>0.35</v>
       </c>
       <c r="AJ2" s="0" t="n">
         <v>2</v>
@@ -539,7 +550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="39.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="n">
         <v>2</v>
       </c>
@@ -585,8 +596,8 @@
       <c r="AB3" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="AC3" s="2" t="n">
-        <v>0.2</v>
+      <c r="AC3" s="6" t="n">
+        <v>0.3</v>
       </c>
       <c r="AJ3" s="0" t="n">
         <v>2</v>
@@ -595,7 +606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="39.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
         <v>3</v>
       </c>
@@ -605,10 +616,10 @@
       <c r="C4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="7" t="s">
         <v>55</v>
       </c>
       <c r="F4" s="0" t="s">
@@ -617,8 +628,8 @@
       <c r="G4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K4" s="1" t="n">
-        <v>8000020635000</v>
+      <c r="K4" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>45</v>
@@ -641,8 +652,8 @@
       <c r="AB4" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="AC4" s="2" t="n">
-        <v>0.2</v>
+      <c r="AC4" s="6" t="n">
+        <v>0.1</v>
       </c>
       <c r="AJ4" s="0" t="n">
         <v>2</v>
@@ -651,7 +662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="39.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="n">
         <v>4</v>
       </c>
@@ -661,11 +672,11 @@
       <c r="C5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="0" t="s">
+      <c r="D5" s="7" t="s">
         <v>57</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>44</v>
@@ -673,8 +684,8 @@
       <c r="G5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K5" s="1" t="n">
-        <v>8000020000013</v>
+      <c r="K5" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>45</v>
@@ -697,132 +708,20 @@
       <c r="AB5" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="AC5" s="2" t="n">
-        <v>0.15</v>
+      <c r="AC5" s="6" t="n">
+        <v>0.25</v>
       </c>
       <c r="AJ5" s="0" t="n">
         <v>2</v>
       </c>
       <c r="AK5" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
         <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1" t="n">
-        <v>5055966801098</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="P6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="T6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="W6" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA6" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB6" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC6" s="2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AJ6" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK6" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="1" t="n">
-        <v>5010327605005</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O7" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="P7" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="T7" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="W7" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA7" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB7" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC7" s="2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AJ7" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK7" s="0" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
